--- a/Verification.xlsx
+++ b/Verification.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kagan\Desktop_v2\Projects-Tutorials\Minature TurboJet\ChangingAngle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kagan/Desktop/compressor_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33760039-2E29-47F5-BCA4-585C5C43B940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9D038B-4A4C-474F-AC86-A0CBE2A3C210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{732FE746-7F9E-4B3C-AA2E-8729F8E25130}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{732FE746-7F9E-4B3C-AA2E-8729F8E25130}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>original x</t>
   </si>
@@ -49,6 +50,12 @@
   </si>
   <si>
     <t>Original</t>
+  </si>
+  <si>
+    <t>+10</t>
+  </si>
+  <si>
+    <t>+22.5</t>
   </si>
 </sst>
 </file>
@@ -84,8 +91,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,6 +429,99 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>81674</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8382BF68-A53D-B311-A394-71BCCAB09C7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1732674" y="393700"/>
+          <a:ext cx="3982325" cy="3073400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC46B36D-3F25-85DA-154B-C925741F97D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7505700" y="400810"/>
+          <a:ext cx="4076700" cy="3053590"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -744,14 +845,14 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D8">
         <v>17.666750799999999</v>
       </c>
@@ -766,7 +867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D9">
         <v>17.6666512</v>
       </c>
@@ -778,7 +879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D10">
         <v>17.666578600000001</v>
       </c>
@@ -790,7 +891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D11">
         <v>17.666533000000001</v>
       </c>
@@ -802,7 +903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D12">
         <v>17.666514599999999</v>
       </c>
@@ -814,7 +915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D13">
         <v>17.666523600000001</v>
       </c>
@@ -826,7 +927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D14">
         <v>17.666559700000001</v>
       </c>
@@ -838,7 +939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D15">
         <v>17.6666229</v>
       </c>
@@ -850,7 +951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D16">
         <v>17.666713000000001</v>
       </c>
@@ -862,7 +963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D17">
         <v>17.666829700000001</v>
       </c>
@@ -874,7 +975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D18">
         <v>17.666972399999999</v>
       </c>
@@ -886,7 +987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D19">
         <v>17.6671409</v>
       </c>
@@ -898,7 +999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D20">
         <v>17.667334400000001</v>
       </c>
@@ -910,7 +1011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D21">
         <v>17.667552400000002</v>
       </c>
@@ -922,7 +1023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D22">
         <v>17.667794000000001</v>
       </c>
@@ -934,7 +1035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D23">
         <v>17.668058599999998</v>
       </c>
@@ -946,7 +1047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D24">
         <v>17.668345200000001</v>
       </c>
@@ -958,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D25">
         <v>17.668652900000001</v>
       </c>
@@ -970,7 +1071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D26">
         <v>17.668980600000001</v>
       </c>
@@ -982,7 +1083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D27">
         <v>17.669327299999999</v>
       </c>
@@ -994,7 +1095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D28">
         <v>17.669691799999999</v>
       </c>
@@ -1006,7 +1107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D29">
         <v>17.670072999999999</v>
       </c>
@@ -1018,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D30">
         <v>17.670469499999999</v>
       </c>
@@ -1030,7 +1131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D31">
         <v>17.670880100000002</v>
       </c>
@@ -1042,7 +1143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D32">
         <v>17.6713035</v>
       </c>
@@ -1054,7 +1155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D33">
         <v>17.672289899999999</v>
       </c>
@@ -1066,7 +1167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D34">
         <v>17.673784600000001</v>
       </c>
@@ -1078,7 +1179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D35">
         <v>17.675787199999998</v>
       </c>
@@ -1090,7 +1191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D36">
         <v>17.678294999999999</v>
       </c>
@@ -1102,7 +1203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D37">
         <v>17.681304900000001</v>
       </c>
@@ -1114,7 +1215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D38">
         <v>17.6848128</v>
       </c>
@@ -1126,7 +1227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D39">
         <v>17.688814000000001</v>
       </c>
@@ -1138,7 +1239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D40">
         <v>17.693302200000002</v>
       </c>
@@ -1150,7 +1251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D41">
         <v>17.698270900000001</v>
       </c>
@@ -1162,7 +1263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D42">
         <v>17.703720799999999</v>
       </c>
@@ -1174,7 +1275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D43">
         <v>17.709651699999998</v>
       </c>
@@ -1186,7 +1287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D44">
         <v>17.7160467</v>
       </c>
@@ -1198,7 +1299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D45">
         <v>17.7228958</v>
       </c>
@@ -1210,7 +1311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D46">
         <v>17.7301921</v>
       </c>
@@ -1222,7 +1323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D47">
         <v>17.737923899999998</v>
       </c>
@@ -1234,7 +1335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D48">
         <v>17.746123300000001</v>
       </c>
@@ -1246,7 +1347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D49">
         <v>17.7547605</v>
       </c>
@@ -1258,7 +1359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D50">
         <v>17.763812699999999</v>
       </c>
@@ -1270,7 +1371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D51">
         <v>17.773267300000001</v>
       </c>
@@ -1282,7 +1383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D52">
         <v>17.783165700000001</v>
       </c>
@@ -1294,7 +1395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D53">
         <v>17.793489399999999</v>
       </c>
@@ -1306,7 +1407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D54">
         <v>17.8041965</v>
       </c>
@@ -1318,7 +1419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D55">
         <v>17.8152841</v>
       </c>
@@ -1330,7 +1431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D56">
         <v>17.826784799999999</v>
       </c>
@@ -1342,7 +1443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D57">
         <v>17.838647699999999</v>
       </c>
@@ -1354,7 +1455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D58">
         <v>17.850836900000001</v>
       </c>
@@ -1366,7 +1467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D59">
         <v>17.863373899999999</v>
       </c>
@@ -1378,7 +1479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D60">
         <v>17.8762151</v>
       </c>
@@ -1390,7 +1491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D61">
         <v>17.8892925</v>
       </c>
@@ -1402,7 +1503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D62">
         <v>17.902636600000001</v>
       </c>
@@ -1414,7 +1515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D63">
         <v>17.916186</v>
       </c>
@@ -1426,7 +1527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D64">
         <v>17.929894999999998</v>
       </c>
@@ -1438,7 +1539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D65">
         <v>17.943812900000001</v>
       </c>
@@ -1450,7 +1551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D66">
         <v>17.957781799999999</v>
       </c>
@@ -1462,7 +1563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D67">
         <v>17.9718725</v>
       </c>
@@ -1474,7 +1575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D68">
         <v>17.986108600000001</v>
       </c>
@@ -1486,7 +1587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D69">
         <v>18.0004195</v>
       </c>
@@ -1498,7 +1599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D70">
         <v>18.014965100000001</v>
       </c>
@@ -1510,7 +1611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D71">
         <v>18.029650100000001</v>
       </c>
@@ -1522,7 +1623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D72">
         <v>18.044466199999999</v>
       </c>
@@ -1534,7 +1635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D73">
         <v>18.059465700000001</v>
       </c>
@@ -1546,7 +1647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D74">
         <v>18.074658400000001</v>
       </c>
@@ -1558,7 +1659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D75">
         <v>18.090002500000001</v>
       </c>
@@ -1570,7 +1671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D76">
         <v>18.105510899999999</v>
       </c>
@@ -1582,7 +1683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D77">
         <v>18.121341699999999</v>
       </c>
@@ -1594,7 +1695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D78">
         <v>18.137342799999999</v>
       </c>
@@ -1606,7 +1707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D79">
         <v>18.1536078</v>
       </c>
@@ -1618,7 +1719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D80">
         <v>18.170511999999999</v>
       </c>
@@ -1630,7 +1731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D81">
         <v>18.187855800000001</v>
       </c>
@@ -1642,7 +1743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D82">
         <v>18.204978799999999</v>
       </c>
@@ -1654,7 +1755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D83">
         <v>18.2217637</v>
       </c>
@@ -1666,7 +1767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D84">
         <v>18.2383591</v>
       </c>
@@ -1678,7 +1779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D85">
         <v>18.254552100000002</v>
       </c>
@@ -1690,7 +1791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D86">
         <v>18.270371999999998</v>
       </c>
@@ -1702,7 +1803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D87">
         <v>18.285772300000001</v>
       </c>
@@ -1714,7 +1815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D88">
         <v>18.300783800000001</v>
       </c>
@@ -1726,7 +1827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D89">
         <v>18.315427400000001</v>
       </c>
@@ -1738,7 +1839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D90">
         <v>18.329716000000001</v>
       </c>
@@ -1750,7 +1851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D91">
         <v>18.343806399999998</v>
       </c>
@@ -1762,7 +1863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D92">
         <v>18.357544499999999</v>
       </c>
@@ -1774,7 +1875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D93">
         <v>18.371050400000001</v>
       </c>
@@ -1786,7 +1887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D94">
         <v>18.384255100000001</v>
       </c>
@@ -1798,7 +1899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D95">
         <v>18.397154100000002</v>
       </c>
@@ -1810,7 +1911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D96">
         <v>18.409739900000002</v>
       </c>
@@ -1822,7 +1923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D97">
         <v>18.4220015</v>
       </c>
@@ -1834,7 +1935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D98">
         <v>18.434039599999998</v>
       </c>
@@ -1846,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D99">
         <v>18.445925500000001</v>
       </c>
@@ -1858,7 +1959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D100">
         <v>18.458057700000001</v>
       </c>
@@ -1870,7 +1971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D101">
         <v>18.470030300000001</v>
       </c>
@@ -1882,7 +1983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D102">
         <v>18.481611900000001</v>
       </c>
@@ -1894,7 +1995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D103">
         <v>18.492915700000001</v>
       </c>
@@ -1906,7 +2007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D104">
         <v>18.503852200000001</v>
       </c>
@@ -1918,7 +2019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D105">
         <v>18.514424200000001</v>
       </c>
@@ -1930,7 +2031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D106">
         <v>18.5246821</v>
       </c>
@@ -1942,7 +2043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D107">
         <v>18.5345491</v>
       </c>
@@ -1954,7 +2055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D108">
         <v>18.544044400000001</v>
       </c>
@@ -1966,7 +2067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D109">
         <v>18.553211399999999</v>
       </c>
@@ -1978,7 +2079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D110">
         <v>18.561978400000001</v>
       </c>
@@ -1990,7 +2091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D111">
         <v>18.570357000000001</v>
       </c>
@@ -2002,7 +2103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D112">
         <v>18.578402799999999</v>
       </c>
@@ -2014,7 +2115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D113">
         <v>18.586075399999999</v>
       </c>
@@ -2026,7 +2127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D114">
         <v>18.593385000000001</v>
       </c>
@@ -2038,7 +2139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D115">
         <v>18.600373399999999</v>
       </c>
@@ -2050,7 +2151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D116">
         <v>18.6070487</v>
       </c>
@@ -2062,7 +2163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D117">
         <v>18.613390800000001</v>
       </c>
@@ -2074,7 +2175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D118">
         <v>18.619405499999999</v>
       </c>
@@ -2086,7 +2187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D119">
         <v>18.625106899999999</v>
       </c>
@@ -2098,7 +2199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D120">
         <v>18.630501899999999</v>
       </c>
@@ -2110,7 +2211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D121">
         <v>18.6355717</v>
       </c>
@@ -2122,7 +2223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D122">
         <v>18.6403173</v>
       </c>
@@ -2134,7 +2235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D123">
         <v>18.644736999999999</v>
       </c>
@@ -2146,7 +2247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D124">
         <v>18.648831999999999</v>
       </c>
@@ -2158,7 +2259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D125">
         <v>18.652612999999999</v>
       </c>
@@ -2170,7 +2271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D126">
         <v>18.656069200000001</v>
       </c>
@@ -2182,7 +2283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D127">
         <v>18.659186099999999</v>
       </c>
@@ -2194,7 +2295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D128">
         <v>18.6619636</v>
       </c>
@@ -2206,7 +2307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D129">
         <v>18.6643984</v>
       </c>
@@ -2218,7 +2319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D130">
         <v>18.6664876</v>
       </c>
@@ -2230,7 +2331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D131">
         <v>18.6682287</v>
       </c>
@@ -2242,7 +2343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D132">
         <v>18.669619399999998</v>
       </c>
@@ -2254,7 +2355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D133">
         <v>18.670657800000001</v>
       </c>
@@ -2266,7 +2367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D134">
         <v>18.671342500000002</v>
       </c>
@@ -2278,7 +2379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D135">
         <v>18.671667299999999</v>
       </c>
@@ -2290,7 +2391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D136">
         <v>18.671997900000001</v>
       </c>
@@ -2302,7 +2403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D137">
         <v>18.672333200000001</v>
       </c>
@@ -2314,7 +2415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D138">
         <v>18.672672200000001</v>
       </c>
@@ -2326,7 +2427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D139">
         <v>18.6730138</v>
       </c>
@@ -2338,7 +2439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D140">
         <v>18.673356800000001</v>
       </c>
@@ -2350,7 +2451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D141">
         <v>18.673700199999999</v>
       </c>
@@ -2362,7 +2463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D142">
         <v>18.6740429</v>
       </c>
@@ -2374,7 +2475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D143">
         <v>18.6743837</v>
       </c>
@@ -2386,7 +2487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D144">
         <v>18.674721600000002</v>
       </c>
@@ -2398,7 +2499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D145">
         <v>18.6750553</v>
       </c>
@@ -2410,7 +2511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D146">
         <v>18.675384000000001</v>
       </c>
@@ -2422,7 +2523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D147">
         <v>18.675706399999999</v>
       </c>
@@ -2434,7 +2535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D148">
         <v>18.676021599999999</v>
       </c>
@@ -2446,7 +2547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D149">
         <v>18.676328600000002</v>
       </c>
@@ -2458,7 +2559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D150">
         <v>18.676626200000001</v>
       </c>
@@ -2470,7 +2571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D151">
         <v>18.676913599999999</v>
       </c>
@@ -2482,7 +2583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D152">
         <v>18.677189899999998</v>
       </c>
@@ -2494,7 +2595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D153">
         <v>18.677454000000001</v>
       </c>
@@ -2506,7 +2607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D154">
         <v>18.6777053</v>
       </c>
@@ -2518,7 +2619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D155">
         <v>18.6779428</v>
       </c>
@@ -2530,7 +2631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D156">
         <v>18.678165799999999</v>
       </c>
@@ -2542,7 +2643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D157">
         <v>18.678373499999999</v>
       </c>
@@ -2554,7 +2655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D158">
         <v>18.6785654</v>
       </c>
@@ -2566,7 +2667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D159">
         <v>18.678740699999999</v>
       </c>
@@ -2578,7 +2679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D160">
         <v>18.678899000000001</v>
       </c>
@@ -2590,7 +2691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D161">
         <v>18.679039700000001</v>
       </c>
@@ -2602,7 +2703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D162">
         <v>18.679162300000002</v>
       </c>
@@ -2614,7 +2715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D163">
         <v>18.679266500000001</v>
       </c>
@@ -2626,7 +2727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D164">
         <v>18.6793519</v>
       </c>
@@ -2638,7 +2739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D165">
         <v>18.679418299999998</v>
       </c>
@@ -2650,7 +2751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D166">
         <v>18.679465499999999</v>
       </c>
@@ -2662,7 +2763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D167">
         <v>18.679493300000001</v>
       </c>
@@ -2674,7 +2775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D168">
         <v>18.679501599999998</v>
       </c>
@@ -2686,7 +2787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D169">
         <v>18.679490399999999</v>
       </c>
@@ -2698,7 +2799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D170">
         <v>18.6794598</v>
       </c>
@@ -2710,7 +2811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D171">
         <v>18.6794099</v>
       </c>
@@ -2722,7 +2823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D172">
         <v>18.6793409</v>
       </c>
@@ -2734,7 +2835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D173">
         <v>18.679252900000002</v>
       </c>
@@ -2746,7 +2847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D174">
         <v>18.679146299999999</v>
       </c>
@@ -2758,7 +2859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D175">
         <v>18.679021500000001</v>
       </c>
@@ -2770,7 +2871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D176">
         <v>18.6788788</v>
       </c>
@@ -2782,7 +2883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D177">
         <v>18.678718799999999</v>
       </c>
@@ -2794,7 +2895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D178">
         <v>18.678541899999999</v>
       </c>
@@ -2806,7 +2907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D179">
         <v>18.678348700000001</v>
       </c>
@@ -2818,7 +2919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D180">
         <v>18.678139900000001</v>
       </c>
@@ -2830,7 +2931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D181">
         <v>18.677916199999999</v>
       </c>
@@ -2842,7 +2943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D182">
         <v>18.677678199999999</v>
       </c>
@@ -2854,7 +2955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D183">
         <v>18.677156799999999</v>
       </c>
@@ -2866,7 +2967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D184">
         <v>18.6763656</v>
       </c>
@@ -2878,7 +2979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D185">
         <v>18.675305699999999</v>
       </c>
@@ -2890,7 +2991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D186">
         <v>18.6739785</v>
       </c>
@@ -2902,7 +3003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D187">
         <v>18.672385999999999</v>
       </c>
@@ -2914,7 +3015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D188">
         <v>18.670530500000002</v>
       </c>
@@ -2926,7 +3027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D189">
         <v>18.6684141</v>
       </c>
@@ -2938,7 +3039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D190">
         <v>18.666039000000001</v>
       </c>
@@ -2950,7 +3051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D191">
         <v>18.6634107</v>
       </c>
@@ -2962,7 +3063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D192">
         <v>18.660520600000002</v>
       </c>
@@ -2974,7 +3075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D193">
         <v>18.6573633</v>
       </c>
@@ -2986,7 +3087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D194">
         <v>18.6539538</v>
       </c>
@@ -2998,7 +3099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D195">
         <v>18.650296999999998</v>
       </c>
@@ -3010,7 +3111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D196">
         <v>18.6463939</v>
       </c>
@@ -3022,7 +3123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D197">
         <v>18.642247000000001</v>
       </c>
@@ -3034,7 +3135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D198">
         <v>18.637837099999999</v>
       </c>
@@ -3046,7 +3147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D199">
         <v>18.63317</v>
       </c>
@@ -3058,7 +3159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D200">
         <v>18.628256799999999</v>
       </c>
@@ -3070,7 +3171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D201">
         <v>18.6230993</v>
       </c>
@@ -3082,7 +3183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D202">
         <v>18.617674000000001</v>
       </c>
@@ -3094,7 +3195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D203">
         <v>18.6119749</v>
       </c>
@@ -3106,7 +3207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D204">
         <v>18.606022800000002</v>
       </c>
@@ -3118,7 +3219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D205">
         <v>18.599800399999999</v>
       </c>
@@ -3130,7 +3231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D206">
         <v>18.593240000000002</v>
       </c>
@@ -3142,7 +3243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D207">
         <v>18.586379000000001</v>
       </c>
@@ -3154,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D208">
         <v>18.579209899999999</v>
       </c>
@@ -3166,7 +3267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D209">
         <v>18.571673700000002</v>
       </c>
@@ -3178,7 +3279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D210">
         <v>18.563809299999999</v>
       </c>
@@ -3190,7 +3291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D211">
         <v>18.555637999999998</v>
       </c>
@@ -3202,7 +3303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D212">
         <v>18.547098999999999</v>
       </c>
@@ -3214,7 +3315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D213">
         <v>18.5382423</v>
       </c>
@@ -3226,7 +3327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D214">
         <v>18.5290748</v>
       </c>
@@ -3238,7 +3339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D215">
         <v>18.519532300000002</v>
       </c>
@@ -3250,7 +3351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D216">
         <v>18.509689399999999</v>
       </c>
@@ -3262,7 +3363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D217">
         <v>18.499503399999998</v>
       </c>
@@ -3274,7 +3375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D218">
         <v>18.4889768</v>
       </c>
@@ -3286,7 +3387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D219">
         <v>18.478160800000001</v>
       </c>
@@ -3298,7 +3399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D220">
         <v>18.467001700000001</v>
       </c>
@@ -3310,7 +3411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D221">
         <v>18.455940900000002</v>
       </c>
@@ -3322,7 +3423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D222">
         <v>18.444895299999999</v>
       </c>
@@ -3334,7 +3435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D223">
         <v>18.433501700000001</v>
       </c>
@@ -3346,7 +3447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D224">
         <v>18.421805599999999</v>
       </c>
@@ -3358,7 +3459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D225">
         <v>18.409714099999999</v>
       </c>
@@ -3370,7 +3471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D226">
         <v>18.397334000000001</v>
       </c>
@@ -3382,7 +3483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D227">
         <v>18.384513999999999</v>
       </c>
@@ -3394,7 +3495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D228">
         <v>18.371367299999999</v>
       </c>
@@ -3406,7 +3507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D229">
         <v>18.357873600000001</v>
       </c>
@@ -3418,7 +3519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D230">
         <v>18.344021099999999</v>
       </c>
@@ -3430,7 +3531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D231">
         <v>18.3298159</v>
       </c>
@@ -3442,7 +3543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D232">
         <v>18.3152154</v>
       </c>
@@ -3454,7 +3555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D233">
         <v>18.3002389</v>
       </c>
@@ -3466,7 +3567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D234">
         <v>18.284709100000001</v>
       </c>
@@ -3478,7 +3579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D235">
         <v>18.268781300000001</v>
       </c>
@@ -3490,7 +3591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D236">
         <v>18.2522898</v>
       </c>
@@ -3502,7 +3603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D237">
         <v>18.2353478</v>
       </c>
@@ -3514,7 +3615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D238">
         <v>18.217951100000001</v>
       </c>
@@ -3526,7 +3627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D239">
         <v>18.200137300000002</v>
       </c>
@@ -3538,7 +3639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D240">
         <v>18.182113999999999</v>
       </c>
@@ -3550,7 +3651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D241">
         <v>18.163585600000001</v>
       </c>
@@ -3562,7 +3663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D242">
         <v>18.145252800000002</v>
       </c>
@@ -3574,7 +3675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D243">
         <v>18.127596799999999</v>
       </c>
@@ -3586,7 +3687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D244">
         <v>18.1101828</v>
       </c>
@@ -3598,7 +3699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D245">
         <v>18.092990700000001</v>
       </c>
@@ -3610,7 +3711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D246">
         <v>18.076013799999998</v>
       </c>
@@ -3622,7 +3723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D247">
         <v>18.059237700000001</v>
       </c>
@@ -3634,7 +3735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D248">
         <v>18.042548700000001</v>
       </c>
@@ -3646,7 +3747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D249">
         <v>18.026120899999999</v>
       </c>
@@ -3658,7 +3759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D250">
         <v>18.009892000000001</v>
       </c>
@@ -3670,7 +3771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D251">
         <v>17.993837500000001</v>
       </c>
@@ -3682,7 +3783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D252">
         <v>17.978004200000001</v>
       </c>
@@ -3694,7 +3795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D253">
         <v>17.962289899999998</v>
       </c>
@@ -3706,7 +3807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D254">
         <v>17.946774600000001</v>
       </c>
@@ -3718,7 +3819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D255">
         <v>17.931446000000001</v>
       </c>
@@ -3730,7 +3831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D256">
         <v>17.916272599999999</v>
       </c>
@@ -3742,7 +3843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D257">
         <v>17.901306000000002</v>
       </c>
@@ -3754,7 +3855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D258">
         <v>17.886582099999998</v>
       </c>
@@ -3766,7 +3867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D259">
         <v>17.872146300000001</v>
       </c>
@@ -3778,7 +3879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D260">
         <v>17.858077699999999</v>
       </c>
@@ -3790,7 +3891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D261">
         <v>17.8443869</v>
       </c>
@@ -3802,7 +3903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D262">
         <v>17.8310791</v>
       </c>
@@ -3814,7 +3915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D263">
         <v>17.818241799999999</v>
       </c>
@@ -3826,7 +3927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D264">
         <v>17.805909400000001</v>
       </c>
@@ -3838,7 +3939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D265">
         <v>17.794072</v>
       </c>
@@ -3850,7 +3951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D266">
         <v>17.782736100000001</v>
       </c>
@@ -3862,7 +3963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D267">
         <v>17.771966200000001</v>
       </c>
@@ -3874,7 +3975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D268">
         <v>17.761758199999999</v>
       </c>
@@ -3886,7 +3987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D269">
         <v>17.7521013</v>
       </c>
@@ -3898,7 +3999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D270">
         <v>17.742975699999999</v>
       </c>
@@ -3910,7 +4011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D271">
         <v>17.7344249</v>
       </c>
@@ -3922,7 +4023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D272">
         <v>17.7264458</v>
       </c>
@@ -3934,7 +4035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D273">
         <v>17.719039599999999</v>
       </c>
@@ -3946,7 +4047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D274">
         <v>17.7122043</v>
       </c>
@@ -3958,7 +4059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D275">
         <v>17.705930599999999</v>
       </c>
@@ -3970,7 +4071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D276">
         <v>17.700225400000001</v>
       </c>
@@ -3982,7 +4083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D277">
         <v>17.695096400000001</v>
       </c>
@@ -3994,7 +4095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D278">
         <v>17.690542900000001</v>
       </c>
@@ -4006,7 +4107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D279">
         <v>17.686563899999999</v>
       </c>
@@ -4018,7 +4119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D280">
         <v>17.683159</v>
       </c>
@@ -4030,7 +4131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D281">
         <v>17.680328500000002</v>
       </c>
@@ -4042,7 +4143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D282">
         <v>17.6780723</v>
       </c>
@@ -4054,7 +4155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D283">
         <v>17.676390699999999</v>
       </c>
@@ -4066,7 +4167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D284">
         <v>17.6752821</v>
       </c>
@@ -4078,7 +4179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D285">
         <v>17.674799499999999</v>
       </c>
@@ -4090,7 +4191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D286">
         <v>17.674317299999998</v>
       </c>
@@ -4102,7 +4203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D287">
         <v>17.673836900000001</v>
       </c>
@@ -4114,7 +4215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D288">
         <v>17.673359999999999</v>
       </c>
@@ -4126,7 +4227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D289">
         <v>17.6728883</v>
       </c>
@@ -4138,7 +4239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D290">
         <v>17.672423200000001</v>
       </c>
@@ -4150,7 +4251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D291">
         <v>17.6719665</v>
       </c>
@@ -4162,7 +4263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D292">
         <v>17.671519499999999</v>
       </c>
@@ -4174,7 +4275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D293">
         <v>17.671083800000002</v>
       </c>
@@ -4186,7 +4287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D294">
         <v>17.670660900000001</v>
       </c>
@@ -4198,7 +4299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D295">
         <v>17.670252099999999</v>
       </c>
@@ -4210,7 +4311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D296">
         <v>17.669858699999999</v>
       </c>
@@ -4222,7 +4323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D297">
         <v>17.669482200000001</v>
       </c>
@@ -4234,7 +4335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D298">
         <v>17.6691237</v>
       </c>
@@ -4246,7 +4347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D299">
         <v>17.668784299999999</v>
       </c>
@@ -4258,7 +4359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D300">
         <v>17.668465300000001</v>
       </c>
@@ -4270,7 +4371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D301">
         <v>17.668167499999999</v>
       </c>
@@ -4282,7 +4383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D302">
         <v>17.6678921</v>
       </c>
@@ -4294,7 +4395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D303">
         <v>17.6676398</v>
       </c>
@@ -4306,7 +4407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D304">
         <v>17.6674115</v>
       </c>
@@ -4318,7 +4419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D305">
         <v>17.6672078</v>
       </c>
@@ -4330,7 +4431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D306">
         <v>17.667029500000002</v>
       </c>
@@ -4342,7 +4443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D307">
         <v>17.666876999999999</v>
       </c>
@@ -4354,7 +4455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D308">
         <v>17.666750799999999</v>
       </c>
@@ -4376,18 +4477,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B258E6C4-3078-4BE0-8790-CDB7A3AEB816}">
   <dimension ref="B3:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B30" activeCellId="1" sqref="V60 B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="M3" t="s">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67BAF168-01B0-A442-8D2C-3BB981FB8D8F}">
+  <dimension ref="B3:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
